--- a/outputs/20250601_185319/message_report/parsed_DJIFlightRecord_2025-05-12_[08-20-56]_message.xlsx
+++ b/outputs/20250601_185319/message_report/parsed_DJIFlightRecord_2025-05-12_[08-20-56]_message.xlsx
@@ -1139,11 +1139,7 @@
           <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>E18</t>
@@ -3029,11 +3025,7 @@
           <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
           <t>E18</t>
@@ -3299,11 +3291,7 @@
           <t>RC signal lost. Aircraft will follow preset action for lost signal.</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
           <t>E18</t>
@@ -5879,11 +5867,7 @@
           <t>Area under aircraft unsuitable for landing. Move to safe environment and try again.</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
+      <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
           <t>E33</t>
